--- a/WIP/Documents/Translation_Documents/Trieu chung.xlsx
+++ b/WIP/Documents/Translation_Documents/Trieu chung.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="updated" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>Các triệu chứng thường gặp</t>
   </si>
@@ -127,6 +128,44 @@
   </si>
   <si>
     <t>Bất tỉnh và ngừng thở</t>
+  </si>
+  <si>
+    <t>mất tỉnh táo, lơ mơ, buồn nôn</t>
+  </si>
+  <si>
+    <t>nôn mửa, đau bụng</t>
+  </si>
+  <si>
+    <t>buồn nôn, nôn, ngứa ran, sốc, hôn mê, tê liệt</t>
+  </si>
+  <si>
+    <t>đau, sưng,  bầm tím</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhỏ dãi, Tê cứng, Giảm tầm nhìn, nhức đầu dữ dội, Chóng mặt
+</t>
+  </si>
+  <si>
+    <t>đau dai dẳng ở ngực. Tay, cổ, hàm, lưng, dạ dày bị cảm thấy có áp lực, đè nén co thắt khó chịu</t>
+  </si>
+  <si>
+    <t>khó hít thở, Thở khò khè</t>
+  </si>
+  <si>
+    <t>Da bị nóng, đỏ,  nôn mửa, tăng thân nhiệt</t>
+  </si>
+  <si>
+    <t>bị run, tím tái, lạnh cóng, mất phương hướng</t>
+  </si>
+  <si>
+    <t>cứng cổ, mỏi cơ và đau khớp, đau đầu, tăng thân nhiệt, nhạy cảm với ánh sáng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đói, Co giật, Da mềm nhũn, Mồ hôi, Buồn ngủ, nhầm lẫn, Mệt mỏi, cảm thấy đau nhức, Đột ngột mất ý thức
+</t>
+  </si>
+  <si>
+    <t>phát ban,  ngứa, bị sưng trên tay, chân, mặt, Giảm tần suất nhịp thở</t>
   </si>
 </sst>
 </file>
@@ -185,9 +224,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -197,13 +233,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,7 +338,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,26 +560,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -589,13 +628,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -677,13 +716,13 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -704,4 +743,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="126.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>